--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -736,22 +736,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +758,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1360,7 +1360,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1556,7 +1556,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2874,6 +2874,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2885,13 +2892,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2935,43 +2935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3016,58 +3016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3092,23 +3092,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3419,7 +3419,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4737,6 +4737,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4748,13 +4755,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4765,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -4798,43 +4798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4879,58 +4879,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4955,23 +4955,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>88</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5054,7 +5054,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5230,7 +5230,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6548,6 +6548,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6559,13 +6566,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6609,43 +6609,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -6690,58 +6690,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6766,23 +6766,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6863,7 +6863,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7039,7 +7039,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8357,6 +8357,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8368,13 +8375,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8418,43 +8418,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8499,58 +8499,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -8575,23 +8575,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8648,7 +8648,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8677,7 +8677,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8824,7 +8824,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8911,7 +8911,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10142,13 +10142,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10160,6 +10153,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -736,7 +736,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,21 +773,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1360,7 +1360,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1556,7 +1556,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2874,13 +2874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2892,6 +2885,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2935,43 +2935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3016,58 +3016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3092,23 +3092,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3419,7 +3419,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4737,13 +4737,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4755,6 +4748,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4765,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4798,43 +4798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4879,58 +4879,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4955,23 +4955,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>88</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5054,7 +5054,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5230,7 +5230,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6548,13 +6548,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6566,6 +6559,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6609,43 +6609,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -6690,58 +6690,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6766,23 +6766,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6863,7 +6863,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7039,7 +7039,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8357,13 +8357,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8375,6 +8368,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8418,43 +8418,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8499,58 +8499,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -8575,23 +8575,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8648,7 +8648,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8677,7 +8677,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8824,7 +8824,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8911,7 +8911,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10142,6 +10142,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10153,13 +10160,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00036.250815</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>1504150905/865904028273792</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,11 +1320,19 @@
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>76</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="M6" s="40"/>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
@@ -1348,10 +1368,16 @@
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="40"/>
+      <c r="K7" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="M7" s="40"/>
       <c r="N7" s="3"/>
       <c r="O7" s="40"/>
@@ -1387,8 +1413,12 @@
       <c r="H8" s="53"/>
       <c r="I8" s="51"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="40"/>
+      <c r="K8" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
       <c r="O8" s="40"/>
@@ -4765,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>1504150905/865904028273792</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
   </si>
 </sst>
 </file>
@@ -748,22 +751,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +773,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M8" sqref="M8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1126,43 +1129,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1207,58 +1210,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1283,23 +1286,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,15 +1336,25 @@
       <c r="L6" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1378,15 +1391,25 @@
       <c r="L7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="M7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1434,9 @@
         <v>68</v>
       </c>
       <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="61" t="s">
         <v>90</v>
@@ -1419,15 +1444,25 @@
       <c r="L8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1503,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1532,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1526,7 +1561,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1590,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1586,7 +1621,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1650,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +1679,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1708,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1827,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2261,7 +2296,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2904,6 +2939,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2915,13 +2957,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2965,43 +3000,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3046,58 +3081,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3122,23 +3157,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,7 +3223,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3239,7 +3274,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3292,7 +3327,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3366,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3360,7 +3395,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3389,7 +3424,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3418,7 +3453,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3449,7 +3484,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3478,7 +3513,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3542,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3536,7 +3571,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4767,6 +4802,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4778,13 +4820,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4828,43 +4863,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4909,58 +4944,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4985,23 +5020,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5053,7 +5088,7 @@
         <v>88</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5084,7 +5119,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5113,7 +5148,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5177,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5171,7 +5206,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5200,7 +5235,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5229,7 +5264,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5260,7 +5295,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5289,7 +5324,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5318,7 +5353,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5382,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6578,6 +6613,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6589,13 +6631,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6639,43 +6674,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -6720,58 +6755,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6796,23 +6831,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6862,7 +6897,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6893,7 +6928,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6922,7 +6957,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6951,7 +6986,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6980,7 +7015,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7009,7 +7044,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7038,7 +7073,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7069,7 +7104,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7098,7 +7133,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7127,7 +7162,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7156,7 +7191,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8387,6 +8422,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8398,13 +8440,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8448,43 +8483,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8529,58 +8564,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -8605,23 +8640,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8647,7 +8682,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8678,7 +8713,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8707,7 +8742,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8771,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8765,7 +8800,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8794,7 +8829,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8823,7 +8858,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8854,7 +8889,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8883,7 +8918,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8912,7 +8947,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8941,7 +8976,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10172,13 +10207,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10190,6 +10218,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn 3,3v, hỏng MCU+Module GPS</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:R8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1318,9 @@
       <c r="B6" s="37">
         <v>44322</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44327</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>67</v>
       </c>
@@ -1369,7 +1377,9 @@
       <c r="B7" s="37">
         <v>44322</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44327</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>67</v>
       </c>
@@ -1422,7 +1432,9 @@
       <c r="B8" s="37">
         <v>44322</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44327</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -1475,7 +1487,9 @@
       <c r="B9" s="37">
         <v>44322</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="37">
+        <v>44327</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>67</v>
       </c>
@@ -1495,12 +1509,22 @@
         <v>85</v>
       </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="85"/>
@@ -1827,7 +1851,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2328,7 +2352,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2360,7 +2384,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2967,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3207,9 @@
       <c r="B6" s="37">
         <v>44322</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44327</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -3238,7 +3264,9 @@
       <c r="B7" s="37">
         <v>44322</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44327</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>70</v>
       </c>
@@ -3287,7 +3315,9 @@
       <c r="B8" s="37">
         <v>44322</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44327</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
@@ -3340,7 +3370,9 @@
       <c r="B9" s="37">
         <v>44322</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="37">
+        <v>44327</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>70</v>
       </c>
@@ -3355,15 +3387,27 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="85"/>
@@ -3722,7 +3766,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4031,7 +4075,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4223,7 +4267,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4341,7 +4385,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4830,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5090,9 @@
       <c r="B6" s="37">
         <v>44322</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44327</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
@@ -6641,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6903,9 @@
       <c r="B6" s="37">
         <v>44322</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44327</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,13 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,9 +678,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,7 +748,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,21 +785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,21 +1093,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1135,46 +1126,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1192,14 +1183,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1216,100 +1207,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="73" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1334,11 +1325,11 @@
       <c r="H6" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1347,7 +1338,7 @@
       <c r="M6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
@@ -1361,14 +1352,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1391,11 +1382,11 @@
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>91</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="59" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1404,7 +1395,7 @@
       <c r="M7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
       </c>
@@ -1418,12 +1409,12 @@
         <v>24</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1438,19 +1429,19 @@
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="72" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="58" t="s">
         <v>90</v>
       </c>
       <c r="L8" s="40" t="s">
@@ -1459,7 +1450,7 @@
       <c r="M8" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
@@ -1473,12 +1464,12 @@
         <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="71"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1501,7 +1492,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="40"/>
@@ -1526,25 +1517,25 @@
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="37"/>
-      <c r="C10" s="68"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1555,25 +1546,25 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="71"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1584,25 +1575,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1613,27 +1604,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="71"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1644,25 +1635,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1673,25 +1664,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1703,24 +1694,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1732,24 +1723,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="71"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1761,22 +1752,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="71"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="71"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1796,14 +1787,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1815,26 +1806,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1859,14 +1850,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1891,14 +1882,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1923,14 +1914,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1950,14 +1941,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1977,14 +1968,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1996,26 +1987,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2040,14 +2031,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2072,14 +2063,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2104,14 +2095,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2136,14 +2127,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2168,14 +2159,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2200,14 +2191,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2232,14 +2223,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2264,14 +2255,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2296,14 +2287,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2328,14 +2319,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2360,14 +2351,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2392,14 +2383,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2419,14 +2410,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2446,14 +2437,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2478,14 +2469,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2510,14 +2501,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2537,14 +2528,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2564,14 +2555,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2600,14 +2591,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2639,14 +2630,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2678,14 +2669,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2717,14 +2708,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2759,14 +2750,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2778,23 +2769,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2803,26 +2794,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2834,23 +2825,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2862,23 +2853,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2890,23 +2881,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2918,23 +2909,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2946,9 +2937,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,13 +2954,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2981,6 +2965,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2991,21 +2982,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M9"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -3024,46 +3015,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3081,14 +3072,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3105,100 +3096,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="73" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3221,20 +3212,20 @@
         <v>68</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="40" t="s">
         <v>79</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
@@ -3248,14 +3239,14 @@
         <v>36</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3278,11 +3269,11 @@
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
         <v>83</v>
@@ -3301,12 +3292,12 @@
         <v>30</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3328,14 +3319,14 @@
       <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="40" t="s">
         <v>79</v>
       </c>
@@ -3356,12 +3347,12 @@
         <v>30</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="71"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3386,7 +3377,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40" t="s">
         <v>96</v>
       </c>
@@ -3409,25 +3400,25 @@
         <v>30</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -3438,25 +3429,25 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="71"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3467,25 +3458,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3496,27 +3487,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="71"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -3527,25 +3518,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -3556,25 +3547,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3586,24 +3577,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3615,24 +3606,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="71"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3644,22 +3635,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="71"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="71"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3679,14 +3670,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3698,26 +3689,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3742,14 +3733,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3774,14 +3765,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3806,14 +3797,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3833,14 +3824,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3860,14 +3851,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3879,26 +3870,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3923,14 +3914,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3955,14 +3946,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -3987,14 +3978,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4019,14 +4010,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4051,14 +4042,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4083,14 +4074,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4115,14 +4106,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4147,14 +4138,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4179,14 +4170,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4211,14 +4202,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4243,14 +4234,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4275,14 +4266,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4302,14 +4293,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4329,14 +4320,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4361,14 +4352,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4393,14 +4384,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4420,14 +4411,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4447,14 +4438,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4483,14 +4474,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4522,14 +4513,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4561,14 +4552,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4600,14 +4591,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4642,14 +4633,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4661,23 +4652,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4686,26 +4677,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4717,23 +4708,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4745,23 +4736,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4773,23 +4764,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4801,23 +4792,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4829,9 +4820,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,13 +4837,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4864,6 +4848,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4874,21 +4865,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="G4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4907,46 +4898,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -4964,14 +4955,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4988,100 +4979,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="73" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5096,19 +5087,19 @@
       <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="72">
         <v>866192037769302</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>86</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -5117,7 +5108,7 @@
       <c r="M6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
@@ -5133,14 +5124,14 @@
       <c r="S6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5149,13 +5140,13 @@
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="3"/>
@@ -5164,12 +5155,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="74"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5179,12 +5170,12 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="61"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
@@ -5193,25 +5184,25 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="74"/>
+      <c r="W8" s="71"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -5222,25 +5213,25 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="74"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -5251,25 +5242,25 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="74"/>
+      <c r="W10" s="71"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -5280,25 +5271,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="74"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -5309,27 +5300,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="74"/>
+      <c r="W12" s="71"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -5340,25 +5331,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="74"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -5369,25 +5360,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="74"/>
+      <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -5399,24 +5390,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="74"/>
+      <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -5428,24 +5419,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="74"/>
+      <c r="W16" s="71"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -5457,22 +5448,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="71"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="71"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5492,14 +5483,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5511,26 +5502,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5555,14 +5546,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5587,14 +5578,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -5619,14 +5610,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5646,14 +5637,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5673,14 +5664,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5692,26 +5683,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5736,14 +5727,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5768,14 +5759,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -5800,14 +5791,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -5832,14 +5823,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5864,14 +5855,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5896,14 +5887,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5928,14 +5919,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5960,14 +5951,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5992,14 +5983,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6024,14 +6015,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6056,14 +6047,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6088,14 +6079,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6115,14 +6106,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6142,14 +6133,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6174,14 +6165,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6206,14 +6197,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6233,14 +6224,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6260,14 +6251,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6296,14 +6287,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6335,14 +6326,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6374,14 +6365,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6413,14 +6404,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6455,14 +6446,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6474,23 +6465,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -6499,26 +6490,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6530,23 +6521,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -6558,23 +6549,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -6586,23 +6577,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -6614,23 +6605,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -6642,9 +6633,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6659,13 +6650,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6677,6 +6661,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6687,21 +6678,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -6720,46 +6711,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="54"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -6777,14 +6768,14 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -6801,100 +6792,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6909,28 +6900,28 @@
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="72">
         <v>868183035854731</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
@@ -6944,14 +6935,14 @@
         <v>30</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -6960,13 +6951,13 @@
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="3"/>
@@ -6975,12 +6966,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -6990,12 +6981,12 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="61"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
@@ -7004,25 +6995,25 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -7033,25 +7024,25 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -7062,25 +7053,25 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -7091,25 +7082,25 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -7120,27 +7111,27 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -7151,25 +7142,25 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -7180,25 +7171,25 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -7210,24 +7201,24 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -7239,24 +7230,24 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -7268,22 +7259,22 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7303,14 +7294,14 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7322,26 +7313,26 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="60" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7366,14 +7357,14 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -7398,14 +7389,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -7430,14 +7421,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -7457,14 +7448,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -7484,14 +7475,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -7503,26 +7494,26 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="60" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -7547,14 +7538,14 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -7579,14 +7570,14 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -7611,14 +7602,14 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -7643,14 +7634,14 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -7675,14 +7666,14 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -7707,14 +7698,14 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -7739,14 +7730,14 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -7771,14 +7762,14 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -7803,14 +7794,14 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -7835,14 +7826,14 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -7867,14 +7858,14 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -7899,14 +7890,14 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -7926,14 +7917,14 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -7953,14 +7944,14 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -7985,14 +7976,14 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -8017,14 +8008,14 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -8044,14 +8035,14 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -8071,14 +8062,14 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -8107,14 +8098,14 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -8146,14 +8137,14 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -8185,14 +8176,14 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -8224,14 +8215,14 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -8266,14 +8257,14 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -8285,23 +8276,23 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="58"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -8310,26 +8301,26 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -8341,23 +8332,23 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -8369,23 +8360,23 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -8397,23 +8388,23 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -8425,23 +8416,23 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -8453,9 +8444,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8470,13 +8461,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8488,6 +8472,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8498,8 +8489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8531,43 +8522,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8612,394 +8603,650 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>865904028273792</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="K6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="42"/>
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="39">
+        <v>862118027449625</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>69</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="K8" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>867330022282001</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="39">
+        <v>861694037983143</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="39">
+        <v>863586032923637</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="59"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="39">
+        <v>862631039247829</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="G12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="39">
+        <v>866104024722095</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="40"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="85"/>
+      <c r="B14" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="72">
+        <v>866192037769302</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="37">
+        <v>44322</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44327</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="72">
+        <v>868183035854731</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>74</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="M15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -9024,11 +9271,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -9053,9 +9300,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -9107,13 +9354,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -9143,7 +9390,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9175,7 +9422,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9288,13 +9535,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -9484,7 +9731,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9580,7 +9827,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -9612,7 +9859,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -9644,7 +9891,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -9676,7 +9923,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9794,7 +10041,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -10070,9 +10317,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10081,10 +10328,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -10095,12 +10342,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10126,9 +10373,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,9 +10401,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,9 +10429,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10210,9 +10457,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10238,9 +10485,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10255,6 +10502,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10266,13 +10520,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
